--- a/data/MetalliCan/cleaned_data/energy_df_sd.xlsx
+++ b/data/MetalliCan/cleaned_data/energy_df_sd.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/cleaned_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_15CD20FD107B4B17D52C4C3F95EA0DE778798AD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07317516-8F1C-4C46-A4FE-810262BEC6C8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$183</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1060,8 +1069,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,13 +1133,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1168,7 +1185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1202,6 +1219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1236,9 +1254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1411,14 +1430,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1525,7 @@
         <v>236</v>
       </c>
       <c r="F2">
-        <v>18.475650648</v>
+        <v>18.475650647999998</v>
       </c>
       <c r="H2" t="s">
         <v>253</v>
@@ -1497,7 +1537,7 @@
         <v>304</v>
       </c>
       <c r="L2">
-        <v>18475.650648</v>
+        <v>18475.650647999999</v>
       </c>
       <c r="M2" t="s">
         <v>324</v>
@@ -1512,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>236</v>
       </c>
       <c r="F3">
-        <v>72676.1107896</v>
+        <v>72676.110789600003</v>
       </c>
       <c r="H3" t="s">
         <v>253</v>
@@ -1556,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1613,7 @@
         <v>236</v>
       </c>
       <c r="F4">
-        <v>287042.447231542</v>
+        <v>287042.44723154203</v>
       </c>
       <c r="H4" t="s">
         <v>253</v>
@@ -1585,7 +1625,7 @@
         <v>304</v>
       </c>
       <c r="L4">
-        <v>287042447.2315421</v>
+        <v>287042447.23154211</v>
       </c>
       <c r="M4" t="s">
         <v>324</v>
@@ -1600,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1701,7 @@
         <v>236</v>
       </c>
       <c r="F6">
-        <v>42071.0413</v>
+        <v>42071.041299999997</v>
       </c>
       <c r="H6" t="s">
         <v>253</v>
@@ -1673,7 +1713,7 @@
         <v>304</v>
       </c>
       <c r="L6">
-        <v>42071041.3</v>
+        <v>42071041.299999997</v>
       </c>
       <c r="M6" t="s">
         <v>324</v>
@@ -1688,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1745,7 @@
         <v>236</v>
       </c>
       <c r="F7">
-        <v>2344.0244</v>
+        <v>2344.0243999999998</v>
       </c>
       <c r="H7" t="s">
         <v>253</v>
@@ -1732,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1789,7 @@
         <v>236</v>
       </c>
       <c r="F8">
-        <v>569009.5848</v>
+        <v>569009.58479999995</v>
       </c>
       <c r="H8" t="s">
         <v>253</v>
@@ -1761,7 +1801,7 @@
         <v>304</v>
       </c>
       <c r="L8">
-        <v>569009584.8</v>
+        <v>569009584.79999995</v>
       </c>
       <c r="M8" t="s">
         <v>324</v>
@@ -1776,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1833,7 @@
         <v>236</v>
       </c>
       <c r="F9">
-        <v>86225.1173956</v>
+        <v>86225.117395599998</v>
       </c>
       <c r="H9" t="s">
         <v>253</v>
@@ -1805,7 +1845,7 @@
         <v>304</v>
       </c>
       <c r="L9">
-        <v>86225117.39559999</v>
+        <v>86225117.395599991</v>
       </c>
       <c r="M9" t="s">
         <v>324</v>
@@ -1820,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1849,7 +1889,7 @@
         <v>305</v>
       </c>
       <c r="L10">
-        <v>2428287789.6</v>
+        <v>2428287789.5999999</v>
       </c>
       <c r="M10" t="s">
         <v>324</v>
@@ -1864,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1952,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2013,7 +2053,7 @@
         <v>236</v>
       </c>
       <c r="F14">
-        <v>1463.60937</v>
+        <v>1463.6093699999999</v>
       </c>
       <c r="H14" t="s">
         <v>254</v>
@@ -2040,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2087,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2156,7 @@
         <v>307</v>
       </c>
       <c r="L16">
-        <v>406955086.18151</v>
+        <v>406955086.18150997</v>
       </c>
       <c r="M16" t="s">
         <v>325</v>
@@ -2131,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2160,7 +2200,7 @@
         <v>307</v>
       </c>
       <c r="L17">
-        <v>18683944.156062</v>
+        <v>18683944.156061999</v>
       </c>
       <c r="M17" t="s">
         <v>325</v>
@@ -2175,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2204,7 +2244,7 @@
         <v>307</v>
       </c>
       <c r="L18">
-        <v>47351322.34127901</v>
+        <v>47351322.341279007</v>
       </c>
       <c r="M18" t="s">
         <v>325</v>
@@ -2219,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +2326,7 @@
         <v>307</v>
       </c>
       <c r="L20">
-        <v>495635929.2</v>
+        <v>495635929.19999999</v>
       </c>
       <c r="M20" t="s">
         <v>324</v>
@@ -2301,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2318,7 +2358,7 @@
         <v>241</v>
       </c>
       <c r="F21">
-        <v>80.95999999999999</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="G21" t="s">
         <v>249</v>
@@ -2348,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2365,7 +2405,7 @@
         <v>241</v>
       </c>
       <c r="F22">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G22" t="s">
         <v>249</v>
@@ -2395,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2412,7 +2452,7 @@
         <v>241</v>
       </c>
       <c r="F23">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="G23" t="s">
         <v>249</v>
@@ -2442,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2515,7 +2555,7 @@
         <v>305</v>
       </c>
       <c r="L25">
-        <v>2991452173.2</v>
+        <v>2991452173.1999998</v>
       </c>
       <c r="M25" t="s">
         <v>324</v>
@@ -2530,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2574,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2618,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2662,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2706,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2750,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2794,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2838,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2882,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2899,7 +2939,7 @@
         <v>238</v>
       </c>
       <c r="F34">
-        <v>34190.62</v>
+        <v>34190.620000000003</v>
       </c>
       <c r="G34" t="s">
         <v>250</v>
@@ -2929,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2986,7 @@
         <v>238</v>
       </c>
       <c r="F35">
-        <v>38555.38</v>
+        <v>38555.379999999997</v>
       </c>
       <c r="G35" t="s">
         <v>250</v>
@@ -2976,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2993,7 +3033,7 @@
         <v>236</v>
       </c>
       <c r="F36">
-        <v>21662.09888</v>
+        <v>21662.098880000001</v>
       </c>
       <c r="H36" t="s">
         <v>260</v>
@@ -3005,7 +3045,7 @@
         <v>304</v>
       </c>
       <c r="L36">
-        <v>21662098.88</v>
+        <v>21662098.879999999</v>
       </c>
       <c r="M36" t="s">
         <v>324</v>
@@ -3020,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3077,7 @@
         <v>236</v>
       </c>
       <c r="F37">
-        <v>385327.7974</v>
+        <v>385327.79739999998</v>
       </c>
       <c r="H37" t="s">
         <v>260</v>
@@ -3049,7 +3089,7 @@
         <v>304</v>
       </c>
       <c r="L37">
-        <v>385327797.4</v>
+        <v>385327797.39999998</v>
       </c>
       <c r="M37" t="s">
         <v>324</v>
@@ -3064,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3121,7 @@
         <v>236</v>
       </c>
       <c r="F38">
-        <v>10018.1179</v>
+        <v>10018.117899999999</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -3108,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3166,7 +3206,7 @@
         <v>236</v>
       </c>
       <c r="F40">
-        <v>142393.17415</v>
+        <v>142393.17415000001</v>
       </c>
       <c r="H40" t="s">
         <v>260</v>
@@ -3178,7 +3218,7 @@
         <v>304</v>
       </c>
       <c r="L40">
-        <v>142393174.15</v>
+        <v>142393174.15000001</v>
       </c>
       <c r="M40" t="s">
         <v>324</v>
@@ -3193,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3210,7 +3250,7 @@
         <v>236</v>
       </c>
       <c r="F41">
-        <v>892229.95044</v>
+        <v>892229.95044000004</v>
       </c>
       <c r="H41" t="s">
         <v>260</v>
@@ -3222,7 +3262,7 @@
         <v>304</v>
       </c>
       <c r="L41">
-        <v>892229950.4400001</v>
+        <v>892229950.44000006</v>
       </c>
       <c r="M41" t="s">
         <v>324</v>
@@ -3237,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3281,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -3325,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3369,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3413,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -3457,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3501,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3545,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3589,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3633,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3677,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3721,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3765,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -3809,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -3853,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3897,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -4029,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4058,7 +4098,7 @@
         <v>307</v>
       </c>
       <c r="L60">
-        <v>59877652.47701801</v>
+        <v>59877652.477018014</v>
       </c>
       <c r="M60" t="s">
         <v>325</v>
@@ -4073,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -4102,7 +4142,7 @@
         <v>307</v>
       </c>
       <c r="L61">
-        <v>8694343.315476002</v>
+        <v>8694343.3154760022</v>
       </c>
       <c r="M61" t="s">
         <v>325</v>
@@ -4117,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -4146,7 +4186,7 @@
         <v>307</v>
       </c>
       <c r="L62">
-        <v>40474782.118133</v>
+        <v>40474782.118133001</v>
       </c>
       <c r="M62" t="s">
         <v>325</v>
@@ -4161,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -4199,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -4228,7 +4268,7 @@
         <v>307</v>
       </c>
       <c r="L64">
-        <v>63343396.8</v>
+        <v>63343396.799999997</v>
       </c>
       <c r="M64" t="s">
         <v>324</v>
@@ -4243,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -4287,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -4331,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -4375,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4419,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4466,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -4513,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -4557,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -4601,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -4645,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -4689,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -4733,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -4777,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4821,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -4865,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -4909,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -4953,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -4997,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -5041,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -5085,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -5129,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -5173,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -5217,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -5261,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -5305,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -5349,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -5393,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -5437,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -5466,7 +5506,7 @@
         <v>305</v>
       </c>
       <c r="L92">
-        <v>593954510.4</v>
+        <v>593954510.39999998</v>
       </c>
       <c r="M92" t="s">
         <v>324</v>
@@ -5481,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -5525,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5569,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -5613,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -5657,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -5701,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5730,7 +5770,7 @@
         <v>305</v>
       </c>
       <c r="L98">
-        <v>477755733.6</v>
+        <v>477755733.60000002</v>
       </c>
       <c r="M98" t="s">
         <v>324</v>
@@ -5745,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5789,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -5833,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -5877,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -5915,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -5953,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5991,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -6029,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -6067,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -6084,7 +6124,7 @@
         <v>236</v>
       </c>
       <c r="F107">
-        <v>27653.22904</v>
+        <v>27653.229039999998</v>
       </c>
       <c r="H107" t="s">
         <v>273</v>
@@ -6096,7 +6136,7 @@
         <v>304</v>
       </c>
       <c r="L107">
-        <v>27653229.04</v>
+        <v>27653229.039999999</v>
       </c>
       <c r="M107" t="s">
         <v>324</v>
@@ -6111,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6155,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -6184,7 +6224,7 @@
         <v>304</v>
       </c>
       <c r="L109">
-        <v>308614730.821</v>
+        <v>308614730.82099998</v>
       </c>
       <c r="M109" t="s">
         <v>324</v>
@@ -6199,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -6216,7 +6256,7 @@
         <v>236</v>
       </c>
       <c r="F110">
-        <v>5437.635</v>
+        <v>5437.6350000000002</v>
       </c>
       <c r="H110" t="s">
         <v>273</v>
@@ -6243,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -6260,7 +6300,7 @@
         <v>243</v>
       </c>
       <c r="F111">
-        <v>726.071</v>
+        <v>726.07100000000003</v>
       </c>
       <c r="G111" t="s">
         <v>251</v>
@@ -6284,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6313,7 +6353,7 @@
         <v>304</v>
       </c>
       <c r="L112">
-        <v>229891868.95</v>
+        <v>229891868.94999999</v>
       </c>
       <c r="M112" t="s">
         <v>324</v>
@@ -6328,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -6372,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6401,7 +6441,7 @@
         <v>304</v>
       </c>
       <c r="L114">
-        <v>3808984.28206273</v>
+        <v>3808984.2820627298</v>
       </c>
       <c r="M114" t="s">
         <v>324</v>
@@ -6416,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -6460,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6477,7 +6517,7 @@
         <v>236</v>
       </c>
       <c r="F116">
-        <v>56414.6765</v>
+        <v>56414.676500000001</v>
       </c>
       <c r="H116" t="s">
         <v>274</v>
@@ -6504,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6548,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6565,7 +6605,7 @@
         <v>246</v>
       </c>
       <c r="F118">
-        <v>4761600.1</v>
+        <v>4761600.0999999996</v>
       </c>
       <c r="H118" t="s">
         <v>274</v>
@@ -6577,7 +6617,7 @@
         <v>317</v>
       </c>
       <c r="L118">
-        <v>183797763.86</v>
+        <v>183797763.86000001</v>
       </c>
       <c r="M118" t="s">
         <v>325</v>
@@ -6592,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6636,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6680,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6724,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6768,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -6785,7 +6825,7 @@
         <v>236</v>
       </c>
       <c r="F123">
-        <v>23524.436671511</v>
+        <v>23524.436671511001</v>
       </c>
       <c r="I123" t="s">
         <v>282</v>
@@ -6797,7 +6837,7 @@
         <v>304</v>
       </c>
       <c r="L123">
-        <v>23524436.671511</v>
+        <v>23524436.671510998</v>
       </c>
       <c r="M123" t="s">
         <v>324</v>
@@ -6812,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -6829,7 +6869,7 @@
         <v>236</v>
       </c>
       <c r="F124">
-        <v>623021.8686160001</v>
+        <v>623021.86861600005</v>
       </c>
       <c r="I124" t="s">
         <v>282</v>
@@ -6841,7 +6881,7 @@
         <v>304</v>
       </c>
       <c r="L124">
-        <v>623021868.6160001</v>
+        <v>623021868.61600006</v>
       </c>
       <c r="M124" t="s">
         <v>324</v>
@@ -6856,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -6873,7 +6913,7 @@
         <v>236</v>
       </c>
       <c r="F125">
-        <v>91025.4822599152</v>
+        <v>91025.482259915196</v>
       </c>
       <c r="I125" t="s">
         <v>282</v>
@@ -6885,7 +6925,7 @@
         <v>304</v>
       </c>
       <c r="L125">
-        <v>91025482.2599152</v>
+        <v>91025482.259915203</v>
       </c>
       <c r="M125" t="s">
         <v>324</v>
@@ -6900,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -6944,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -6985,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -7029,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -7046,7 +7086,7 @@
         <v>236</v>
       </c>
       <c r="F129">
-        <v>6336.0580703</v>
+        <v>6336.0580702999996</v>
       </c>
       <c r="I129" t="s">
         <v>282</v>
@@ -7058,7 +7098,7 @@
         <v>304</v>
       </c>
       <c r="L129">
-        <v>6336058.0703</v>
+        <v>6336058.0702999998</v>
       </c>
       <c r="M129" t="s">
         <v>324</v>
@@ -7073,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -7117,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -7161,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -7178,7 +7218,7 @@
         <v>246</v>
       </c>
       <c r="F132">
-        <v>42378137.86</v>
+        <v>42378137.859999999</v>
       </c>
       <c r="H132" t="s">
         <v>275</v>
@@ -7190,7 +7230,7 @@
         <v>317</v>
       </c>
       <c r="L132">
-        <v>1635796121.396</v>
+        <v>1635796121.3959999</v>
       </c>
       <c r="M132" t="s">
         <v>325</v>
@@ -7205,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -7249,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -7266,7 +7306,7 @@
         <v>246</v>
       </c>
       <c r="F134">
-        <v>1147190.1</v>
+        <v>1147190.1000000001</v>
       </c>
       <c r="H134" t="s">
         <v>275</v>
@@ -7278,7 +7318,7 @@
         <v>317</v>
       </c>
       <c r="L134">
-        <v>39233901.42000001</v>
+        <v>39233901.420000009</v>
       </c>
       <c r="M134" t="s">
         <v>325</v>
@@ -7293,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -7322,7 +7362,7 @@
         <v>317</v>
       </c>
       <c r="L135">
-        <v>93392747.12900001</v>
+        <v>93392747.129000008</v>
       </c>
       <c r="M135" t="s">
         <v>325</v>
@@ -7337,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -7354,7 +7394,7 @@
         <v>236</v>
       </c>
       <c r="F136">
-        <v>5528.5667</v>
+        <v>5528.5667000000003</v>
       </c>
       <c r="H136" t="s">
         <v>276</v>
@@ -7366,7 +7406,7 @@
         <v>304</v>
       </c>
       <c r="L136">
-        <v>5528566.7</v>
+        <v>5528566.7000000002</v>
       </c>
       <c r="M136" t="s">
         <v>324</v>
@@ -7381,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -7425,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -7442,7 +7482,7 @@
         <v>236</v>
       </c>
       <c r="F138">
-        <v>121071.915388</v>
+        <v>121071.91538799999</v>
       </c>
       <c r="H138" t="s">
         <v>276</v>
@@ -7469,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -7486,7 +7526,7 @@
         <v>236</v>
       </c>
       <c r="F139">
-        <v>1361713.858312</v>
+        <v>1361713.8583120001</v>
       </c>
       <c r="H139" t="s">
         <v>276</v>
@@ -7513,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -7530,7 +7570,7 @@
         <v>236</v>
       </c>
       <c r="F140">
-        <v>1274584.3416</v>
+        <v>1274584.3415999999</v>
       </c>
       <c r="H140" t="s">
         <v>276</v>
@@ -7542,7 +7582,7 @@
         <v>304</v>
       </c>
       <c r="L140">
-        <v>1274584341.6</v>
+        <v>1274584341.5999999</v>
       </c>
       <c r="M140" t="s">
         <v>324</v>
@@ -7557,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7601,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -7618,7 +7658,7 @@
         <v>236</v>
       </c>
       <c r="F142">
-        <v>80313.18580000001</v>
+        <v>80313.185800000007</v>
       </c>
       <c r="H142" t="s">
         <v>276</v>
@@ -7630,7 +7670,7 @@
         <v>304</v>
       </c>
       <c r="L142">
-        <v>80313185.80000001</v>
+        <v>80313185.800000012</v>
       </c>
       <c r="M142" t="s">
         <v>324</v>
@@ -7645,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -7674,7 +7714,7 @@
         <v>318</v>
       </c>
       <c r="L143">
-        <v>893875119.6906</v>
+        <v>893875119.69060004</v>
       </c>
       <c r="M143" t="s">
         <v>324</v>
@@ -7689,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7733,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7762,7 +7802,7 @@
         <v>318</v>
       </c>
       <c r="L145">
-        <v>5185797.300000001</v>
+        <v>5185797.3000000007</v>
       </c>
       <c r="M145" t="s">
         <v>325</v>
@@ -7777,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -7806,7 +7846,7 @@
         <v>318</v>
       </c>
       <c r="L146">
-        <v>16209148.33999998</v>
+        <v>16209148.339999979</v>
       </c>
       <c r="M146" t="s">
         <v>325</v>
@@ -7821,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -7865,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -7909,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7953,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -7997,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -8041,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -8085,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -8129,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -8173,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -8202,7 +8242,7 @@
         <v>321</v>
       </c>
       <c r="L155">
-        <v>193225046.4</v>
+        <v>193225046.40000001</v>
       </c>
       <c r="M155" t="s">
         <v>324</v>
@@ -8217,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -8264,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -8308,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -8352,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -8399,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -8446,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -8493,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -8537,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -8581,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -8625,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -8642,7 +8682,7 @@
         <v>236</v>
       </c>
       <c r="F165">
-        <v>4889.799999999999</v>
+        <v>4889.7999999999993</v>
       </c>
       <c r="I165" t="s">
         <v>285</v>
@@ -8654,7 +8694,7 @@
         <v>322</v>
       </c>
       <c r="L165">
-        <v>4889799.999999999</v>
+        <v>4889799.9999999991</v>
       </c>
       <c r="M165" t="s">
         <v>324</v>
@@ -8669,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -8716,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -8760,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -8777,7 +8817,7 @@
         <v>236</v>
       </c>
       <c r="F168">
-        <v>159325.59885</v>
+        <v>159325.59885000001</v>
       </c>
       <c r="I168" t="s">
         <v>285</v>
@@ -8789,7 +8829,7 @@
         <v>322</v>
       </c>
       <c r="L168">
-        <v>159325598.85</v>
+        <v>159325598.84999999</v>
       </c>
       <c r="M168" t="s">
         <v>324</v>
@@ -8804,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -8821,7 +8861,7 @@
         <v>236</v>
       </c>
       <c r="F169">
-        <v>525946.7</v>
+        <v>525946.69999999995</v>
       </c>
       <c r="H169" t="s">
         <v>279</v>
@@ -8833,7 +8873,7 @@
         <v>323</v>
       </c>
       <c r="L169">
-        <v>525946699.9999999</v>
+        <v>525946699.99999988</v>
       </c>
       <c r="M169" t="s">
         <v>324</v>
@@ -8848,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -8895,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -8939,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -8956,7 +8996,7 @@
         <v>236</v>
       </c>
       <c r="F172">
-        <v>4260.6</v>
+        <v>4260.6000000000004</v>
       </c>
       <c r="G172" t="s">
         <v>251</v>
@@ -8986,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -9030,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -9074,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -9118,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -9162,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9206,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -9250,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -9294,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -9338,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -9382,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -9426,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -9468,6 +9508,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P183" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>